--- a/功能說明.xlsx
+++ b/功能說明.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\MPLABXProjects\G5_Chaggerrrr.X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200043E6-FB42-48F5-A5C4-A3CEC1A703A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75163A52-0234-40F2-B6AE-4C96584C9F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAD12F7C-E34F-4194-8F86-12C9185144E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DAD12F7C-E34F-4194-8F86-12C9185144E7}"/>
   </bookViews>
   <sheets>
     <sheet name="顯示說明" sheetId="1" r:id="rId1"/>
+    <sheet name="出廠設定" sheetId="4" r:id="rId2"/>
+    <sheet name="user資料說明" sheetId="2" r:id="rId3"/>
+    <sheet name="電子附載機通訊協定(ModBUS)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="202">
   <si>
     <t>黃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +149,613 @@
   </si>
   <si>
     <t>寫入滿安時數成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_G5</t>
+  </si>
+  <si>
+    <t>InterFace</t>
+  </si>
+  <si>
+    <t>Current_Point</t>
+  </si>
+  <si>
+    <t>Voltage_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voltage_statue</t>
+  </si>
+  <si>
+    <t>幾bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current_statue</t>
+  </si>
+  <si>
+    <t>Voltage_G5</t>
+  </si>
+  <si>
+    <t>Current_G5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Residual_Electricity</t>
+  </si>
+  <si>
+    <t>Nominal_Battery_Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery_Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature1</t>
+  </si>
+  <si>
+    <t>Battery_ID</t>
+  </si>
+  <si>
+    <t>Car_Statue</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now_Total_Capacity</t>
+  </si>
+  <si>
+    <t>Fake_Voltage</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電流方向(1:負、0:正)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電壓方向(1:負、0:正)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5電壓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電流小數點後位數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電壓小數點後位數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5電流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前安時數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESET安時數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩餘電量百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5溫度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車子狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用小時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用分鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用日期</t>
+  </si>
+  <si>
+    <t>假電壓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset電壓點</t>
+  </si>
+  <si>
+    <t>g5資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_Ele_load</t>
+  </si>
+  <si>
+    <t>電子附載機ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buzzing</t>
+  </si>
+  <si>
+    <t>放電結束 //0x00=蜂鳴器沒有在叫 0x01=蜂鳴器在叫 //0x00 0x01 //前面是有沒有叫 後面是叫的音樂</t>
+  </si>
+  <si>
+    <t>BaudRate</t>
+  </si>
+  <si>
+    <t>BaudRate  //0x25 0x80</t>
+  </si>
+  <si>
+    <t>ID_decide</t>
+  </si>
+  <si>
+    <t>Capacity_H</t>
+  </si>
+  <si>
+    <t>Voltage_Ele_load</t>
+  </si>
+  <si>
+    <t>電子附載機電壓 // Voltage/100=實際電壓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>型號 //001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twoZero</t>
+  </si>
+  <si>
+    <t>兩個0 //00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverTemperature</t>
+  </si>
+  <si>
+    <t>//1=是過溫保護暫停狀態，0=是正常狀態</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>DisCharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//1=是放電狀態；0=是停止狀態 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1=是表示已經結束，0=是尚未開始或者尚未結束 要在把容量清0後才會為0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量高位元</t>
+  </si>
+  <si>
+    <t>Capacity_L</t>
+  </si>
+  <si>
+    <t>容量低位元</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>電子附載機溫度 // Temperature/10=實際溫度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopVoltage</t>
+  </si>
+  <si>
+    <t>截止電壓 // StopVoltage/100=實際截止電壓</t>
+  </si>
+  <si>
+    <t>DisChargeCurrent</t>
+  </si>
+  <si>
+    <t>放電電流 // DisChargeCurrent /10=實際放電電流</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>功率</t>
+  </si>
+  <si>
+    <t>電子附載機資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEC放電儀MODBUS功能說明V1.13（紅字部分是較上一版本更改部分）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>參數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本機寄存器位址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射PLC位址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器屬性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣播功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能說明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放電開/關</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0000</t>
+  </si>
+  <si>
+    <t>此4個量01功能碼只能通過0X0000地址整體查詢，05碼執行置位功能時是不同的位址。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1bits</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>此寄存器資料是二進位數字0bxyz00abc，“c是放電開關位元，c=1是放電狀態；c=0是停止狀態。”“b是結束標誌位元，b=1是表示已經結束，b=0是尚未開始或者尚未結束，此位可置零不可置一，此位置零才能執行啟動命令”。“a是過溫保護標誌，a=1是過溫保護暫停狀態，a=0是正常狀態”。。。。“xyz是產品型號。001代表TEC-80K型號，其他型號待確定”。以上控制量在通過01功能碼查詢時地址是同一個0x00，在05功能碼置位時是不同地址。xyz的3bits是產品型號資訊。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>廣播地址0XFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始放電: 01 05 00 00 ff 00 crc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束標誌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>0X0001</t>
+  </si>
+  <si>
+    <t>結束放電: 01 05 00 01 00 00 crc要把容量清0才會stop為0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>過溫保護開關</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>產品型號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3bits</t>
+  </si>
+  <si>
+    <t>暫定001***** 型號是TEC-80K,010*****型號是TEC-M2;011是TEC-12H;100是型號TEC-P6,其它待定。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>電流範圍值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>8bits</t>
+  </si>
+  <si>
+    <t>此寄存器高4位是電流的最大範圍控制字，乘以5代表電流值，比如0110（6）代表30A,0000是最大16*5=80A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此寄存器低4位是電流的最小範圍控制字，數位值代表電流值，比如0011代表3A.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鳴器音樂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>16bits</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>06廣播地址0XFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器高8位元是聲音報警標誌，報警時是0X01，可通過置0（0x00）消音。消音時不應改變低8位。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>寄存器0x00低8位元表示音樂。0：靜音\0x01:Beethoven Symphony No.9\0x02:Are you sleeping\0x04:Kamata March</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>串列傳輸速率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非專業人員勿操作，如通過通訊介面造成不可逆的更改，可在本機操作設定串列傳輸速率。128000專用於USB連接通訊；modbus位元速率可直接發送如下數值 2400；4800；9600；14400；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>本機地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>非專業人員勿操作，可更改本機位址，應答後做出更改，本功能適合於初次安裝的地址設定,本機也可對地址設定做更改。出廠默認位址是0x00(適用於USB連接).modbus地址範圍 1-99（255地址適用於廣播）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>實測電壓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回數值單位是10mV;例讀取1080代表10.80V。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0007</t>
+  </si>
+  <si>
+    <t>容量_H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>此數位,H-L共32bits數值構成:HH-H-L-LL,其中H-L-LL的24bits是容量數值，HH的8位元是狀態判斷控制字。此8bits狀態字的2進制數d7 d6 d5 d4 d3 d2 d1 d0，其中d7d6d5是產品型號指示字，001代表此800K型號。d0是放電狀態指示，d1是結束狀態指示，d2是超溫狀態指示。同01碼查詢0000地址的功能。06指令對0X0004或0x0005發送置零指令，均可將容量值清零並清除結束標誌。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*0.001為實際容量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0009</t>
+  </si>
+  <si>
+    <t>容量_L</t>
+  </si>
+  <si>
+    <t>0x000B</t>
+  </si>
+  <si>
+    <t>溫度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>返回單位是0.1℃。  範圍0-960對應0-96攝氏度。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X000D</t>
+  </si>
+  <si>
+    <t>截止電壓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0007</t>
+  </si>
+  <si>
+    <t>H與L構成16bits有效資料,返回數值是10mV;例讀取912代表9.12V。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0011</t>
+  </si>
+  <si>
+    <t>電流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0008</t>
+  </si>
+  <si>
+    <t>H-L構成16bits有效數字，返回數值是0.1A，例如：讀取120代表12安培</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0013</t>
+  </si>
+  <si>
+    <t>功率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0009</t>
+  </si>
+  <si>
+    <t>返回功率值，單位是瓦。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X000F</t>
+  </si>
+  <si>
+    <t>異常應答： 1.當05功能設置的數值非法時，應答：addr+0x85+CRC；  當06功能設置的數值非法時，應答：addr+0x86+CRC；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          2. addr+0X64+0XFF+CRC 代表有初始化參數改變 需要整體查詢：（此功能暫未啟用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01：讀線圈狀態            不支援廣播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>03：讀保持寄存器          不支持廣播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>04：讀輸入寄存器          不支持廣播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>05：強制單個線圈              可廣播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>06：預製單個寄存器            可廣播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>07：讀不正常狀態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫倫計設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50A</t>
+  </si>
+  <si>
+    <t>分流計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baud Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,16 +779,59 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,18 +839,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708B10E-DE93-4413-B5FD-75F41B5EDEBE}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -678,4 +1590,1540 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E90685-3365-4CB8-9308-6D68637DB76A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" style="70" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="70">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="70">
+        <v>9600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84293934-6ABF-4A7B-94D8-874710070276}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A23:A38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9441970-559D-4B03-9110-E2F1953FC8A6}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="68" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="131.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="59"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="60"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="60"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="63"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="63"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="63"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="63"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="63"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="63"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="65"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="65"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>